--- a/Data/Processing/2024-02-02/SYMPHONY.xlsx
+++ b/Data/Processing/2024-02-02/SYMPHONY.xlsx
@@ -963,7 +963,7 @@
         <v>44971</v>
       </c>
       <c r="B9">
-        <v>1047.11</v>
+        <v>1047.12</v>
       </c>
       <c r="C9">
         <v>1063.19</v>
@@ -990,10 +990,10 @@
         <v>1.51</v>
       </c>
       <c r="K9">
-        <v>-1.09</v>
+        <v>-1.1</v>
       </c>
       <c r="L9">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="M9">
         <v>-1.2</v>
@@ -1116,7 +1116,7 @@
         <v>1044.63</v>
       </c>
       <c r="C12">
-        <v>1057.81</v>
+        <v>1057.82</v>
       </c>
       <c r="D12">
         <v>1036.71</v>
@@ -5516,7 +5516,7 @@
         <v>891.84</v>
       </c>
       <c r="C100">
-        <v>901.34</v>
+        <v>901.35</v>
       </c>
       <c r="D100">
         <v>890.84</v>
@@ -5537,7 +5537,7 @@
         <v>0.16</v>
       </c>
       <c r="J100">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K100">
         <v>-0.11</v>
@@ -5546,7 +5546,7 @@
         <v>-7.76</v>
       </c>
       <c r="M100">
-        <v>-0.89</v>
+        <v>-0.9</v>
       </c>
       <c r="N100">
         <v>1.18</v>
